--- a/Running projects/UEP 17th Floor/Finance.xlsx
+++ b/Running projects/UEP 17th Floor/Finance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2023\UEP 17th Floor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Running projects\UEP 17th Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACBDF88-6797-4116-87BB-E0C4C916072C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C595EBC-6643-4DAC-B6F6-E3AA6301001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Bill Summary for the project UEP 17th Floor DMC Karachi</t>
   </si>
@@ -52,12 +52,6 @@
     <t>RUNNING BILL NO 1</t>
   </si>
   <si>
-    <t>SUBMITTED</t>
-  </si>
-  <si>
-    <t>VERIFIED</t>
-  </si>
-  <si>
     <t>Less Retention</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>TOTAL RECEIVABLE</t>
   </si>
   <si>
-    <t>Total Work Done</t>
-  </si>
-  <si>
     <t>Gross Work Done</t>
   </si>
   <si>
@@ -118,34 +109,44 @@
     <t>LESS WHTAX  08%</t>
   </si>
   <si>
-    <t>IPC-1</t>
-  </si>
-  <si>
-    <t>IPC-2</t>
-  </si>
-  <si>
-    <t>IPC-3</t>
-  </si>
-  <si>
-    <t>IPC-4</t>
-  </si>
-  <si>
-    <t>IPC-5</t>
-  </si>
-  <si>
     <t>Amount Received</t>
   </si>
   <si>
-    <t>Amount Payable</t>
+    <t>IPC-01</t>
+  </si>
+  <si>
+    <t>IPC-02</t>
+  </si>
+  <si>
+    <t>IPC-03</t>
+  </si>
+  <si>
+    <t>Verified (IPC-1 + IPC-02)</t>
+  </si>
+  <si>
+    <t>LESS Retention 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESS Remaining Mobilization Adv </t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -346,29 +347,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,23 +378,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -402,14 +400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -419,14 +417,17 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,7 +462,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,13 +507,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1714500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>343680</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114941</xdr:rowOff>
@@ -795,574 +815,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J61"/>
+  <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="2" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="I2" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="F3" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="I3" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="H2" s="35"/>
+      <c r="J2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="G3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="J3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="19">
+      <c r="D4" s="11"/>
+      <c r="E4" s="18">
         <v>55163506</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>55163506</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2">
-        <f>D10</f>
-        <v>594200.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>594201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="29">
-        <f>G5</f>
+      <c r="B5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28">
+        <f>H5</f>
         <v>11032701.200000001</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2">
-        <f>G4*20%</f>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2">
+        <f>H4*20%</f>
         <v>11032701.200000001</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2">
         <v>1103270</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="22"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="21"/>
+      <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
-        <f>G5*8%</f>
+      <c r="H6" s="2">
+        <f>H5*8%</f>
         <v>882616.09600000014</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
       <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H5-H6</f>
+        <v>10150085.104</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>11884018</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="18">
+        <f>D8+C8+B8</f>
+        <v>11884018</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <f>SUM(K4:K7)</f>
+        <v>1697471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="21"/>
+      <c r="H9" s="5"/>
+      <c r="J9"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="18">
+        <f>C10*E8</f>
+        <v>594200.9</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="J10"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="21"/>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2971005</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
-        <f>G5-G6</f>
-        <v>10150085.104</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>14445369</v>
-      </c>
-      <c r="C8" s="11">
-        <v>11884018</v>
-      </c>
-      <c r="D8" s="19">
-        <f>C8</f>
-        <v>11884018</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="I8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2">
-        <f>SUM(J4:J7)</f>
-        <v>1697470.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="22"/>
-      <c r="G9" s="5"/>
-      <c r="I9"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="19">
-        <f>C10*D8</f>
-        <v>594200.9</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="I10"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2">
-        <f>D19</f>
-        <v>2971004.5</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>11</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="19">
-        <f>D8-D10</f>
+      <c r="D12" s="11"/>
+      <c r="E12" s="18">
+        <f>E8-E10</f>
         <v>11289817.1</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="G12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2">
         <v>5516351</v>
       </c>
-      <c r="I12"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="J12"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="22"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="I13"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>18</v>
+      <c r="D13" s="8"/>
+      <c r="E13" s="21"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="J13"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>0.13</v>
       </c>
-      <c r="D14" s="24">
-        <f>D12*13%</f>
+      <c r="D14" s="13"/>
+      <c r="E14" s="23">
+        <f>E12*13%</f>
         <v>1467676.223</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="I14"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="J14"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="22"/>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2">
-        <f>SUM(G11:G14)</f>
-        <v>8487355.5</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="21"/>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2">
+        <f>SUM(H11:H14)</f>
+        <v>8487356</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="24">
-        <f>D12+D14</f>
+      <c r="D16" s="8"/>
+      <c r="E16" s="23">
+        <f>E12+E14</f>
         <v>12757493.322999999</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2">
-        <f>G5-G15</f>
-        <v>2545345.7000000011</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2">
+        <f>H5-H15</f>
+        <v>2545345.2000000011</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="22"/>
-      <c r="G17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="21"/>
+      <c r="H17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="22"/>
-      <c r="G18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>17</v>
+      <c r="D18" s="8"/>
+      <c r="E18" s="21"/>
+      <c r="H18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>0.25</v>
       </c>
-      <c r="D19" s="24">
-        <f>D8*25%</f>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23">
+        <f>E8*25%</f>
         <v>2971004.5</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="H19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="22"/>
-      <c r="G20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="21"/>
+      <c r="H20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="24">
-        <f>D16-D19</f>
+      <c r="D21" s="8"/>
+      <c r="E21" s="23">
+        <f>E16-E19</f>
         <v>9786488.8229999989</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="H21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="22"/>
-      <c r="G22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>20</v>
+      <c r="D22" s="8"/>
+      <c r="E22" s="21"/>
+      <c r="H22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>0.2</v>
       </c>
-      <c r="D23" s="24">
-        <f>D14*C23</f>
+      <c r="D23" s="13"/>
+      <c r="E23" s="23">
+        <f>E14*C23</f>
         <v>293535.24460000003</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>19</v>
+      <c r="H23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>0.08</v>
       </c>
-      <c r="D24" s="19">
-        <f>C24*D21</f>
+      <c r="D24" s="13"/>
+      <c r="E24" s="18">
+        <f>C24*E21</f>
         <v>782919.10583999997</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
+      <c r="H24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="25"/>
-      <c r="G25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="24"/>
+      <c r="H25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29">
-        <f>D16-D19-D23-D24</f>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28">
+        <f>E16-E19-E23-E24</f>
         <v>8710034.4725599997</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1372,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019A813-27E7-4A27-B026-49E59ABA754C}">
-  <dimension ref="A2:K57"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,264 +1460,425 @@
     <col min="1" max="1" width="47.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="42"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>55163506</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="19"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>30</v>
+      <c r="E4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49">
+        <v>55163506</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="46">
+        <v>2586024.4000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="E5" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="49">
+        <v>51720488</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="46">
+        <f>I4*13%</f>
+        <v>336183.17200000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="18"/>
+      <c r="E6" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="49">
+        <f>F5*5%</f>
+        <v>2586024.4000000004</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="46">
+        <f>I5+I4</f>
+        <v>2922207.5720000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="11">
-        <v>11884018</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+        <v>51720488</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="49">
+        <f>F5-F6</f>
+        <v>49134463.600000001</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="46">
+        <f>I5*20%</f>
+        <v>67236.634400000024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="E8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="49">
+        <f>F7*13%</f>
+        <v>6387480.2680000002</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="48">
+        <f>I6*8%</f>
+        <v>233776.60576000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="B9" s="11">
+        <f>B7*5%</f>
+        <v>2586024.4000000004</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="49">
+        <f>F8+F7</f>
+        <v>55521943.868000001</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="46">
+        <f>I6-I7-I8</f>
+        <v>2621194.3318400006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="E10" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="49">
+        <f>9786488+18170858+11032701</f>
+        <v>38990047</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11">
+        <f>B7-B9</f>
+        <v>49134463.600000001</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="49">
+        <f>F9-F10</f>
+        <v>16531896.868000001</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="E12" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="49">
+        <f>F8*20%</f>
+        <v>1277496.0536000002</v>
+      </c>
+      <c r="I12" s="5">
+        <f>I9+F14</f>
+        <v>16553043.396800002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="23">
+        <f>B11*13%</f>
+        <v>6387480.2680000002</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="50">
+        <f>F11*8%</f>
+        <v>1322551.7494400002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>35032291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="21"/>
+      <c r="E14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="49">
+        <f>F11-F12-F13</f>
+        <v>13931849.064960001</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I13+I12</f>
+        <v>51585334.396800004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="23">
+        <f>B13+B11</f>
+        <v>55521943.868000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="K16">
+        <v>2725077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="B17" s="23">
+        <v>2545345.2000000011</v>
+      </c>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="19">
-        <f>SUM(B7:B11)</f>
-        <v>11884018</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="24">
-        <f>B13*13%</f>
-        <v>1544922.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="24">
-        <f>B15+B13</f>
-        <v>13428940.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="K18">
-        <v>2725077</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="24">
-        <f>B15*20%</f>
-        <v>308984.46800000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="19">
-        <f>B17*8%</f>
-        <v>1074315.2272000001</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="B19" s="23">
+        <f>B15-B17</f>
+        <v>52976598.667999998</v>
+      </c>
+      <c r="F19" s="1">
+        <f>B4*13%</f>
+        <v>7171255.7800000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="F20" s="1">
+        <f>F19+B4</f>
+        <v>62334761.780000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="23">
+        <f>9786488+18170858</f>
+        <v>27957346</v>
+      </c>
+      <c r="F21" s="1">
+        <f>F20*8%</f>
+        <v>4986780.9424000001</v>
+      </c>
+      <c r="I21" s="1">
+        <f>I19-I20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="F22" s="1">
+        <f>F19*20%</f>
+        <v>1434251.1560000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23">
+        <f>B19-B21</f>
+        <v>25019252.667999998</v>
+      </c>
+      <c r="F23" s="1">
+        <f>F20-F21-F22</f>
+        <v>55913729.681599997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <f>B13*20%</f>
+        <v>1277496.0536000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18">
+        <f>B23*8%</f>
+        <v>2001540.2134399998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="I28" s="1">
         <v>18170858</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="I21" s="1">
-        <f>K18*20%</f>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="28">
+        <f>B23-B26-B27</f>
+        <v>21740216.400959998</v>
+      </c>
+      <c r="I29" s="1">
+        <f>K16*20%</f>
         <v>545015.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="29">
-        <f>B17-B19-B20</f>
-        <v>12045640.6448</v>
-      </c>
-      <c r="I22" s="1">
-        <f>I20-I21</f>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="I30" s="1">
+        <f>I28-I29</f>
         <v>17625842.600000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="I23" s="1">
-        <f>I20*8%</f>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="I31" s="1">
+        <f>I28*8%</f>
         <v>1453668.6400000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="29">
-        <f>Sheet1!G7+Sheet1!D26+I24</f>
-        <v>35032293.536559999</v>
-      </c>
-      <c r="I24" s="1">
-        <f>I22-I23</f>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="I32" s="1">
+        <f>I30-I31</f>
         <v>16172173.960000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="29">
-        <f>B22-B24</f>
-        <v>-22986652.891759999</v>
-      </c>
-      <c r="I26" s="1">
-        <f>I24-I25</f>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="F34" s="1">
+        <f>B29+I13</f>
+        <v>56772507.400959998</v>
+      </c>
+      <c r="I34" s="1">
+        <f>I32-I33</f>
         <v>16172173.960000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -1651,24 +1889,6 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Running projects/UEP 17th Floor/Finance.xlsx
+++ b/Running projects/UEP 17th Floor/Finance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Running projects\UEP 17th Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C595EBC-6643-4DAC-B6F6-E3AA6301001A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BF5562-27C8-4132-B3EC-35CDA74BCFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Bill Summary for the project UEP 17th Floor DMC Karachi</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">Gross </t>
+  </si>
+  <si>
+    <t>DEDUCTION IN IPC 2</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +203,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +367,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -429,39 +446,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -483,6 +467,42 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -817,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,33 +854,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="G2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="H2" s="43"/>
+      <c r="J2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="H3" s="46"/>
+      <c r="J3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -923,8 +943,12 @@
         <f>H5*8%</f>
         <v>882616.09600000014</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2586024</v>
+      </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
@@ -967,7 +991,7 @@
       </c>
       <c r="K8" s="2">
         <f>SUM(K4:K7)</f>
-        <v>1697471</v>
+        <v>4283495</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -992,10 +1016,10 @@
         <f>C10*E8</f>
         <v>594200.9</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="44"/>
       <c r="J10"/>
       <c r="K10" s="1"/>
     </row>
@@ -1451,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019A813-27E7-4A27-B026-49E59ABA754C}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,10 +1491,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -1483,32 +1507,32 @@
       <c r="B4" s="18">
         <v>55163506</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="38">
         <v>55163506</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="35">
         <v>2586024.4000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="38">
         <v>51720488</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="35">
         <f>I4*13%</f>
         <v>336183.17200000008</v>
       </c>
@@ -1516,17 +1540,17 @@
     <row r="6" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="18"/>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="38">
         <f>F5*5%</f>
         <v>2586024.4000000004</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="35">
         <f>I5+I4</f>
         <v>2922207.5720000006</v>
       </c>
@@ -1538,17 +1562,17 @@
       <c r="B7" s="11">
         <v>51720488</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="38">
         <f>F5-F6</f>
         <v>49134463.600000001</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="35">
         <f>I5*20%</f>
         <v>67236.634400000024</v>
       </c>
@@ -1556,17 +1580,17 @@
     <row r="8" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="38">
         <f>F7*13%</f>
         <v>6387480.2680000002</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="37">
         <f>I6*8%</f>
         <v>233776.60576000006</v>
       </c>
@@ -1579,17 +1603,17 @@
         <f>B7*5%</f>
         <v>2586024.4000000004</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="38">
         <f>F8+F7</f>
         <v>55521943.868000001</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="35">
         <f>I6-I7-I8</f>
         <v>2621194.3318400006</v>
       </c>
@@ -1597,12 +1621,12 @@
     <row r="10" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="49">
-        <f>9786488+18170858+11032701</f>
-        <v>38990047</v>
+      <c r="F10" s="38">
+        <f>9786488+18170858+11032701+8901000</f>
+        <v>47891047</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -1614,28 +1638,28 @@
         <f>B7-B9</f>
         <v>49134463.600000001</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="38">
         <f>F9-F10</f>
-        <v>16531896.868000001</v>
+        <v>7630896.8680000007</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="38">
         <f>F8*20%</f>
         <v>1277496.0536000002</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="51">
         <f>I9+F14</f>
-        <v>16553043.396800002</v>
+        <v>8364123.3968000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -1646,30 +1670,30 @@
         <f>B11*13%</f>
         <v>6387480.2680000002</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="39">
         <f>F11*8%</f>
-        <v>1322551.7494400002</v>
+        <v>610471.74944000004</v>
       </c>
       <c r="I13" s="1">
         <v>35032291</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="21"/>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="38">
         <f>F11-F12-F13</f>
-        <v>13931849.064960001</v>
+        <v>5742929.0649600001</v>
       </c>
       <c r="I14" s="1">
         <f>I13+I12</f>
-        <v>51585334.396800004</v>
+        <v>43396414.396799996</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
@@ -1695,7 +1719,7 @@
       <c r="B17" s="23">
         <v>2545345.2000000011</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -1723,7 +1747,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="23">

--- a/Running projects/UEP 17th Floor/Finance.xlsx
+++ b/Running projects/UEP 17th Floor/Finance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Running projects\UEP 17th Floor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\UEP 17th Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BF5562-27C8-4132-B3EC-35CDA74BCFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14A8A7-C167-4F88-B2A6-605E80A8A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Bill Summary for the project UEP 17th Floor DMC Karachi</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>DEDUCTION IN IPC 2</t>
+  </si>
+  <si>
+    <t>Verified BILL</t>
+  </si>
+  <si>
+    <t>Less Mob</t>
+  </si>
+  <si>
+    <t>Retention</t>
+  </si>
+  <si>
+    <t>Received</t>
   </si>
 </sst>
 </file>
@@ -367,7 +379,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -468,6 +480,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,9 +516,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -534,7 +547,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>343680</xdr:colOff>
+      <xdr:colOff>248430</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114941</xdr:rowOff>
     </xdr:to>
@@ -835,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K61"/>
+  <dimension ref="A2:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,38 +864,39 @@
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="10" max="10" width="34.7109375" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="G2" s="43" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="G2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="J2" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="43"/>
-    </row>
-    <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="J3" s="47" t="s">
+      <c r="H3" s="47"/>
+      <c r="J3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
@@ -905,7 +919,7 @@
         <v>594201</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
@@ -930,7 +944,7 @@
         <v>1103270</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8"/>
@@ -949,8 +963,9 @@
       <c r="K6" s="2">
         <v>2586024</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="9" t="s">
         <v>28</v>
@@ -972,7 +987,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1009,7 @@
         <v>4283495</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1003,7 +1018,7 @@
       <c r="J9"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1016,14 +1031,14 @@
         <f>C10*E8</f>
         <v>594200.9</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="45"/>
       <c r="J10"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1037,7 +1052,7 @@
       <c r="J11"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
@@ -1057,17 +1072,21 @@
       <c r="J12"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="21"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2545345</v>
+      </c>
       <c r="J13"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1104,7 @@
       <c r="J14"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
@@ -1096,11 +1115,11 @@
       </c>
       <c r="H15" s="2">
         <f>SUM(H11:H14)</f>
-        <v>8487356</v>
+        <v>11032701</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
@@ -1114,7 +1133,7 @@
       </c>
       <c r="H16" s="2">
         <f>H5-H15</f>
-        <v>2545345.2000000011</v>
+        <v>0.20000000111758709</v>
       </c>
       <c r="K16" s="1"/>
     </row>
@@ -1473,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0019A813-27E7-4A27-B026-49E59ABA754C}">
-  <dimension ref="A2:K51"/>
+  <dimension ref="A2:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,20 +1506,21 @@
     <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
@@ -1520,14 +1540,14 @@
         <v>2586024.4000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="E5" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="38">
-        <v>51720488</v>
+        <v>58378100</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>16</v>
@@ -1537,7 +1557,7 @@
         <v>336183.17200000008</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="18"/>
       <c r="E6" s="36" t="s">
@@ -1545,7 +1565,7 @@
       </c>
       <c r="F6" s="38">
         <f>F5*5%</f>
-        <v>2586024.4000000004</v>
+        <v>2918905</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>36</v>
@@ -1555,7 +1575,7 @@
         <v>2922207.5720000006</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -1567,7 +1587,7 @@
       </c>
       <c r="F7" s="38">
         <f>F5-F6</f>
-        <v>49134463.600000001</v>
+        <v>55459195</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>25</v>
@@ -1577,7 +1597,7 @@
         <v>67236.634400000024</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="E8" s="36" t="s">
@@ -1585,7 +1605,7 @@
       </c>
       <c r="F8" s="38">
         <f>F7*13%</f>
-        <v>6387480.2680000002</v>
+        <v>7209695.3500000006</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>26</v>
@@ -1595,7 +1615,7 @@
         <v>233776.60576000006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1628,7 @@
       </c>
       <c r="F9" s="38">
         <f>F8+F7</f>
-        <v>55521943.868000001</v>
+        <v>62668890.350000001</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>35</v>
@@ -1617,8 +1637,9 @@
         <f>I6-I7-I8</f>
         <v>2621194.3318400006</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="E10" s="36" t="s">
@@ -1629,8 +1650,15 @@
         <v>47891047</v>
       </c>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="5">
+        <f>F5</f>
+        <v>58378100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>35</v>
       </c>
@@ -1643,11 +1671,17 @@
       </c>
       <c r="F11" s="38">
         <f>F9-F10</f>
-        <v>7630896.8680000007</v>
+        <v>14777843.350000001</v>
       </c>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="5">
+        <v>11032701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="E12" s="36" t="s">
@@ -1655,14 +1689,20 @@
       </c>
       <c r="F12" s="38">
         <f>F8*20%</f>
-        <v>1277496.0536000002</v>
-      </c>
-      <c r="I12" s="51">
+        <v>1441939.0700000003</v>
+      </c>
+      <c r="I12" s="40">
         <f>I9+F14</f>
-        <v>8364123.3968000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>14774871.143840002</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2918905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>16</v>
       </c>
@@ -1675,13 +1715,19 @@
       </c>
       <c r="F13" s="39">
         <f>F11*8%</f>
-        <v>610471.74944000004</v>
+        <v>1182227.4680000001</v>
       </c>
       <c r="I13" s="1">
         <v>35032291</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="L13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="5">
+        <v>36858346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="21"/>
       <c r="E14" s="36" t="s">
@@ -1689,14 +1735,21 @@
       </c>
       <c r="F14" s="38">
         <f>F11-F12-F13</f>
-        <v>5742929.0649600001</v>
+        <v>12153676.812000001</v>
       </c>
       <c r="I14" s="1">
         <f>I13+I12</f>
-        <v>43396414.396799996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+        <v>49807162.14384</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="5">
+        <f>M10-M11-M12-M13</f>
+        <v>7568148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>21</v>
       </c>
@@ -1704,15 +1757,16 @@
         <f>B13+B11</f>
         <v>55521943.868000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="K16">
         <v>2725077</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>33</v>
       </c>
@@ -1721,11 +1775,11 @@
       </c>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
     </row>
-    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>34</v>
       </c>
@@ -1738,7 +1792,7 @@
         <v>7171255.7800000003</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="F20" s="1">
@@ -1746,7 +1800,7 @@
         <v>62334761.780000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="F22" s="1">
@@ -1771,7 +1825,7 @@
         <v>1434251.1560000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="23">
         <f>B19-B21</f>
@@ -1782,15 +1836,18 @@
         <v>55913729.681599997</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>11884018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
@@ -1799,7 +1856,7 @@
         <v>1277496.0536000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
@@ -1808,14 +1865,14 @@
         <v>2001540.2134399998</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="24"/>
       <c r="I28" s="1">
         <v>18170858</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>22</v>
       </c>
@@ -1828,21 +1885,21 @@
         <v>545015.4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="I30" s="1">
         <f>I28-I29</f>
         <v>17625842.600000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="I31" s="1">
         <f>I28*8%</f>
         <v>1453668.6400000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="I32" s="1">
         <f>I30-I31</f>
